--- a/muselist.xlsx
+++ b/muselist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\大三下\软件工程\课设\子系统\museum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\大三下\软件工程\课设\museum\MusemData_Collection_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875CCD52-77D8-43B2-95A1-00DA60782DFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2796CBB-1AC8-4B27-A09D-E3DF4E32793E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="21600" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -718,9 +718,6 @@
     <t>湖南省博物馆</t>
   </si>
   <si>
-    <t>http://www.hnmuseum.com/</t>
-  </si>
-  <si>
     <t>https://baike.baidu.com/item/%E6%B9%96%E5%8D%97%E7%9C%81%E5%8D%9A%E7%89%A9%E9%A6%86</t>
   </si>
   <si>
@@ -1578,6 +1575,10 @@
   </si>
   <si>
     <t>中国（海南）南海博物馆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hnmuseum.com/</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2015,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2350,7 +2351,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>68</v>
@@ -2420,7 +2421,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="2" t="s">
@@ -2788,7 +2789,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D56" t="s">
         <v>157</v>
@@ -3149,10 +3150,10 @@
         <v>231</v>
       </c>
       <c r="C82" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="D82" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -3160,13 +3161,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="D83" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -3174,13 +3175,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -3188,11 +3189,11 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -3200,13 +3201,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="D86" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -3214,11 +3215,11 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -3226,13 +3227,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="D88" s="13" t="s">
         <v>248</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -3240,13 +3241,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="D89" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -3254,13 +3255,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>252</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="D90" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -3268,13 +3269,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="D91" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -3282,13 +3283,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="D92" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -3296,13 +3297,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="D93" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -3310,13 +3311,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="D94" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -3324,13 +3325,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>267</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="D95" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -3338,13 +3339,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>270</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="D96" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -3352,13 +3353,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>273</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="D97" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -3366,11 +3367,11 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -3378,13 +3379,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="D99" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -3392,13 +3393,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="D100" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -3406,13 +3407,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="D101" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -3420,13 +3421,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="D102" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -3434,13 +3435,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="D103" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -3448,13 +3449,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>293</v>
+      </c>
+      <c r="C104" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="D104" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -3462,13 +3463,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>296</v>
+      </c>
+      <c r="C105" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="D105" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -3476,13 +3477,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>299</v>
+      </c>
+      <c r="C106" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="D106" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -3490,13 +3491,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>302</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="D107" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -3504,13 +3505,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="D108" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -3518,11 +3519,11 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C109" s="14"/>
       <c r="D109" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -3530,11 +3531,11 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -3542,13 +3543,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>312</v>
+      </c>
+      <c r="C111" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="D111" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -3556,13 +3557,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>315</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="D112" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -3570,13 +3571,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>318</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="D113" s="13" t="s">
         <v>320</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -3584,13 +3585,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>321</v>
+      </c>
+      <c r="C114" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="D114" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -3598,13 +3599,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>324</v>
+      </c>
+      <c r="C115" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="D115" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3612,13 +3613,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>327</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="D116" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -3626,13 +3627,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>330</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="D117" s="13" t="s">
         <v>332</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -3640,11 +3641,11 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C118" s="14"/>
       <c r="D118" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -3652,13 +3653,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>335</v>
+      </c>
+      <c r="C119" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="D119" s="11" t="s">
         <v>337</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -3666,13 +3667,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>338</v>
+      </c>
+      <c r="C120" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="D120" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -3680,13 +3681,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>341</v>
+      </c>
+      <c r="C121" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="D121" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3694,13 +3695,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>344</v>
+      </c>
+      <c r="C122" t="s">
         <v>345</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" s="10" t="s">
         <v>346</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -3708,13 +3709,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>347</v>
+      </c>
+      <c r="C123" t="s">
         <v>348</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3722,13 +3723,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>350</v>
+      </c>
+      <c r="C124" t="s">
         <v>351</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3736,13 +3737,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>353</v>
+      </c>
+      <c r="C125" t="s">
         <v>354</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" s="10" t="s">
         <v>355</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3750,13 +3751,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>356</v>
+      </c>
+      <c r="C126" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="D126" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3764,13 +3765,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>359</v>
+      </c>
+      <c r="C127" t="s">
         <v>360</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3778,13 +3779,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>362</v>
+      </c>
+      <c r="C128" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="D128" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3792,13 +3793,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>365</v>
+      </c>
+      <c r="C129" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="D129" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3806,13 +3807,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>368</v>
+      </c>
+      <c r="C130" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="D130" s="10" t="s">
         <v>370</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3820,10 +3821,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>371</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>372</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3831,10 +3832,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>373</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3842,10 +3843,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>375</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>376</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3853,10 +3854,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>377</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -3864,10 +3865,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>379</v>
+      </c>
+      <c r="C135" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3875,10 +3876,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>381</v>
+      </c>
+      <c r="C136" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -3886,10 +3887,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>383</v>
+      </c>
+      <c r="C137" s="10" t="s">
         <v>384</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -3897,10 +3898,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>385</v>
+      </c>
+      <c r="C138" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -3908,10 +3909,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>387</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>388</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -3919,10 +3920,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>389</v>
+      </c>
+      <c r="C140" s="10" t="s">
         <v>390</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -3930,10 +3931,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>391</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>392</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -3941,10 +3942,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
+        <v>393</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>394</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -3952,10 +3953,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>395</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>396</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -3963,10 +3964,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>397</v>
+      </c>
+      <c r="C144" s="10" t="s">
         <v>398</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3974,10 +3975,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>399</v>
+      </c>
+      <c r="C145" s="10" t="s">
         <v>400</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -3985,10 +3986,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>401</v>
+      </c>
+      <c r="C146" s="10" t="s">
         <v>402</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -3996,10 +3997,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>403</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>404</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -4007,10 +4008,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>405</v>
+      </c>
+      <c r="C148" s="10" t="s">
         <v>406</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -4018,10 +4019,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>407</v>
+      </c>
+      <c r="C149" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -4029,10 +4030,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>409</v>
+      </c>
+      <c r="C150" s="10" t="s">
         <v>410</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -4040,10 +4041,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -4051,10 +4052,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>412</v>
+      </c>
+      <c r="C152" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -4062,10 +4063,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>414</v>
+      </c>
+      <c r="C153" s="10" t="s">
         <v>415</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -4073,10 +4074,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>416</v>
+      </c>
+      <c r="C154" s="10" t="s">
         <v>417</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -4084,10 +4085,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>418</v>
+      </c>
+      <c r="C155" s="10" t="s">
         <v>419</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -4095,10 +4096,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>420</v>
+      </c>
+      <c r="C156" s="10" t="s">
         <v>421</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -4106,10 +4107,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -4117,10 +4118,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>423</v>
+      </c>
+      <c r="C158" s="10" t="s">
         <v>424</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -4128,10 +4129,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
+        <v>425</v>
+      </c>
+      <c r="C159" s="10" t="s">
         <v>426</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -4139,10 +4140,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -4150,10 +4151,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
+        <v>428</v>
+      </c>
+      <c r="C161" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -4161,10 +4162,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
+        <v>430</v>
+      </c>
+      <c r="C162" s="10" t="s">
         <v>431</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -4172,10 +4173,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>432</v>
+      </c>
+      <c r="C163" s="10" t="s">
         <v>433</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -4183,10 +4184,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>434</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -4194,7 +4195,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -4202,10 +4203,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
+        <v>437</v>
+      </c>
+      <c r="C166" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -4213,7 +4214,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -4221,10 +4222,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
+        <v>439</v>
+      </c>
+      <c r="C168" s="10" t="s">
         <v>440</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -4232,7 +4233,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -4240,10 +4241,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
+        <v>442</v>
+      </c>
+      <c r="C170" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -4251,10 +4252,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>444</v>
+      </c>
+      <c r="C171" s="10" t="s">
         <v>445</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -4262,10 +4263,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
+        <v>446</v>
+      </c>
+      <c r="C172" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -4273,10 +4274,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>448</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>449</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -4284,10 +4285,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>450</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>451</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -4295,10 +4296,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
+        <v>452</v>
+      </c>
+      <c r="C175" s="10" t="s">
         <v>453</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -4306,10 +4307,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>454</v>
+      </c>
+      <c r="C176" s="10" t="s">
         <v>455</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -4317,10 +4318,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -4328,10 +4329,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
+        <v>457</v>
+      </c>
+      <c r="C178" s="10" t="s">
         <v>458</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -4339,10 +4340,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>459</v>
+      </c>
+      <c r="C179" s="10" t="s">
         <v>460</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -4350,10 +4351,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
+        <v>461</v>
+      </c>
+      <c r="C180" s="10" t="s">
         <v>462</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -4361,10 +4362,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
+        <v>463</v>
+      </c>
+      <c r="C181" s="10" t="s">
         <v>464</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -4372,7 +4373,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -4380,7 +4381,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -4388,10 +4389,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>467</v>
+      </c>
+      <c r="C184" s="10" t="s">
         <v>468</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -4399,10 +4400,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>469</v>
+      </c>
+      <c r="C185" s="10" t="s">
         <v>470</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -4410,7 +4411,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -4418,10 +4419,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>472</v>
+      </c>
+      <c r="C187" s="10" t="s">
         <v>473</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -4429,10 +4430,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>474</v>
+      </c>
+      <c r="C188" s="10" t="s">
         <v>475</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -4440,10 +4441,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>476</v>
+      </c>
+      <c r="C189" s="10" t="s">
         <v>477</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -4451,10 +4452,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>478</v>
+      </c>
+      <c r="C190" s="10" t="s">
         <v>479</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -4462,10 +4463,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>480</v>
+      </c>
+      <c r="C191" s="10" t="s">
         <v>481</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -4473,10 +4474,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>482</v>
+      </c>
+      <c r="C192" s="10" t="s">
         <v>483</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -4484,10 +4485,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>484</v>
+      </c>
+      <c r="C193" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -4495,10 +4496,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>486</v>
+      </c>
+      <c r="C194" s="10" t="s">
         <v>487</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -4506,10 +4507,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>488</v>
+      </c>
+      <c r="C195" s="10" t="s">
         <v>489</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -4517,7 +4518,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -4525,7 +4526,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -4533,10 +4534,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>492</v>
+      </c>
+      <c r="C198" s="10" t="s">
         <v>493</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -4544,10 +4545,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>494</v>
+      </c>
+      <c r="C199" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -4555,10 +4556,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>496</v>
+      </c>
+      <c r="C200" s="10" t="s">
         <v>497</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -4566,10 +4567,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>498</v>
+      </c>
+      <c r="C201" s="10" t="s">
         <v>499</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -4577,10 +4578,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>500</v>
+      </c>
+      <c r="C202" s="10" t="s">
         <v>501</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -4588,10 +4589,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>502</v>
+      </c>
+      <c r="C203" s="10" t="s">
         <v>503</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -4599,10 +4600,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
+        <v>504</v>
+      </c>
+      <c r="C204" s="10" t="s">
         <v>505</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -4610,10 +4611,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
+        <v>506</v>
+      </c>
+      <c r="C205" s="10" t="s">
         <v>507</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">

--- a/muselist.xlsx
+++ b/muselist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\大三下\软件工程\课设\museum\MusemData_Collection_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2796CBB-1AC8-4B27-A09D-E3DF4E32793E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37357E7-8FFD-4FF0-B17D-460C09D2FC51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1230" windowWidth="21600" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="21600" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,9 +253,6 @@
     <t>南京中国科举博物馆</t>
   </si>
   <si>
-    <t>http://www.njiemuseum.com/</t>
-  </si>
-  <si>
     <t>https://baike.baidu.com/item/%E4%B8%AD%E5%9B%BD%E7%A7%91%E4%B8%BE%E5%8D%9A%E7%89%A9%E9%A6%86/7808149?fromtitle=%E5%8D%97%E4%BA%AC%E4%B8%AD%E5%9B%BD%E7%A7%91%E4%B8%BE%E5%8D%9A%E7%89%A9%E9%A6%86&amp;fromid=20398211&amp;fr=aladdin</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E5%90%90%E9%B2%81%E7%95%AA%E5%8D%9A%E7%89%A9%E9%A6%86/4800605?fr=aladdin</t>
-  </si>
-  <si>
-    <t>新疆维吾尔自治区博物馆</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E6%96%B0%E7%96%86%E7%BB%B4%E5%90%BE%E5%B0%94%E8%87%AA%E6%B2%BB%E5%8C%BA%E5%8D%9A%E7%89%A9%E9%A6%86/1627548?fr=aladdin</t>
@@ -1579,6 +1573,14 @@
   </si>
   <si>
     <t>http://www.hnmuseum.com/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.njiemuseum.com/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>维吾尔自治区博物馆</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2016,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2351,7 +2353,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>68</v>
@@ -2396,10 +2398,10 @@
         <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2407,13 +2409,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2421,11 +2423,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2433,11 +2435,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2445,11 +2447,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>516</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2457,13 +2459,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2471,13 +2473,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2485,11 +2487,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2497,13 +2499,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2511,13 +2513,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2525,13 +2527,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2539,13 +2541,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2553,13 +2555,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2567,11 +2569,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2579,13 +2581,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2593,13 +2595,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
         <v>115</v>
-      </c>
-      <c r="C42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2607,13 +2609,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
         <v>118</v>
-      </c>
-      <c r="C43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2621,13 +2623,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" t="s">
         <v>121</v>
-      </c>
-      <c r="C44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2635,13 +2637,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" t="s">
         <v>124</v>
-      </c>
-      <c r="C45" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2649,13 +2651,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" t="s">
         <v>127</v>
-      </c>
-      <c r="C46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2663,13 +2665,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
         <v>130</v>
-      </c>
-      <c r="C47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2677,13 +2679,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s">
         <v>133</v>
-      </c>
-      <c r="C48" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2691,13 +2693,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" t="s">
         <v>136</v>
-      </c>
-      <c r="C49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2705,13 +2707,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" t="s">
         <v>139</v>
-      </c>
-      <c r="C50" t="s">
-        <v>140</v>
-      </c>
-      <c r="D50" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2719,13 +2721,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" t="s">
         <v>142</v>
-      </c>
-      <c r="C51" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2733,13 +2735,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="s">
         <v>145</v>
-      </c>
-      <c r="C52" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2747,13 +2749,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" t="s">
         <v>148</v>
-      </c>
-      <c r="C53" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2761,13 +2763,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" t="s">
         <v>151</v>
-      </c>
-      <c r="C54" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2775,13 +2777,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" t="s">
         <v>154</v>
-      </c>
-      <c r="C55" t="s">
-        <v>155</v>
-      </c>
-      <c r="D55" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2789,10 +2791,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2800,13 +2802,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2814,13 +2816,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" t="s">
         <v>160</v>
-      </c>
-      <c r="C58" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2828,13 +2830,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" t="s">
         <v>163</v>
-      </c>
-      <c r="C59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2842,13 +2844,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" t="s">
         <v>166</v>
-      </c>
-      <c r="C60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D60" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2856,13 +2858,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" t="s">
         <v>169</v>
-      </c>
-      <c r="C61" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2870,13 +2872,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" t="s">
         <v>172</v>
-      </c>
-      <c r="C62" t="s">
-        <v>173</v>
-      </c>
-      <c r="D62" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2884,13 +2886,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" t="s">
         <v>175</v>
-      </c>
-      <c r="C63" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2898,13 +2900,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" t="s">
         <v>178</v>
-      </c>
-      <c r="C64" t="s">
-        <v>179</v>
-      </c>
-      <c r="D64" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2912,13 +2914,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" t="s">
         <v>181</v>
-      </c>
-      <c r="C65" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2926,13 +2928,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" t="s">
         <v>184</v>
-      </c>
-      <c r="C66" t="s">
-        <v>185</v>
-      </c>
-      <c r="D66" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2940,13 +2942,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" t="s">
         <v>187</v>
-      </c>
-      <c r="C67" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2954,13 +2956,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" t="s">
         <v>190</v>
-      </c>
-      <c r="C68" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2968,13 +2970,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" t="s">
+        <v>192</v>
+      </c>
+      <c r="D69" t="s">
         <v>193</v>
-      </c>
-      <c r="C69" t="s">
-        <v>194</v>
-      </c>
-      <c r="D69" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2982,13 +2984,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" t="s">
         <v>196</v>
-      </c>
-      <c r="C70" t="s">
-        <v>197</v>
-      </c>
-      <c r="D70" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2996,13 +2998,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" t="s">
         <v>199</v>
-      </c>
-      <c r="C71" t="s">
-        <v>200</v>
-      </c>
-      <c r="D71" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -3010,13 +3012,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" t="s">
         <v>202</v>
-      </c>
-      <c r="C72" t="s">
-        <v>203</v>
-      </c>
-      <c r="D72" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -3024,13 +3026,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" t="s">
         <v>205</v>
-      </c>
-      <c r="C73" t="s">
-        <v>206</v>
-      </c>
-      <c r="D73" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -3038,13 +3040,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" t="s">
         <v>208</v>
-      </c>
-      <c r="C74" t="s">
-        <v>209</v>
-      </c>
-      <c r="D74" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -3052,13 +3054,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" t="s">
         <v>211</v>
-      </c>
-      <c r="C75" t="s">
-        <v>212</v>
-      </c>
-      <c r="D75" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3066,13 +3068,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" t="s">
         <v>214</v>
-      </c>
-      <c r="C76" t="s">
-        <v>215</v>
-      </c>
-      <c r="D76" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3080,13 +3082,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" t="s">
         <v>217</v>
-      </c>
-      <c r="C77" t="s">
-        <v>218</v>
-      </c>
-      <c r="D77" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3094,10 +3096,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3105,13 +3107,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>220</v>
+      </c>
+      <c r="C79" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" t="s">
         <v>222</v>
-      </c>
-      <c r="C79" t="s">
-        <v>223</v>
-      </c>
-      <c r="D79" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3119,13 +3121,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>223</v>
+      </c>
+      <c r="C80" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="C80" t="s">
-        <v>226</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3133,13 +3135,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="C81" t="s">
-        <v>229</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3147,13 +3149,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -3161,13 +3163,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -3175,13 +3177,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="13" t="s">
         <v>236</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -3189,11 +3191,11 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -3201,13 +3203,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -3215,11 +3217,11 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -3227,13 +3229,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D88" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -3241,13 +3243,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -3255,13 +3257,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -3269,13 +3271,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>255</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -3283,13 +3285,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>256</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -3297,13 +3299,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -3311,13 +3313,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -3325,13 +3327,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -3339,13 +3341,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D96" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -3353,13 +3355,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -3367,11 +3369,11 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -3379,13 +3381,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>276</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D99" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -3393,13 +3395,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>279</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>281</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -3407,13 +3409,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>282</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -3421,13 +3423,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>285</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -3435,13 +3437,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -3449,13 +3451,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -3463,13 +3465,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D105" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -3477,13 +3479,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>297</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D106" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -3491,13 +3493,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>300</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D107" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -3505,13 +3507,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>303</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -3519,11 +3521,11 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C109" s="14"/>
       <c r="D109" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -3531,11 +3533,11 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -3543,13 +3545,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>310</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D111" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -3557,13 +3559,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>313</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D112" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -3571,13 +3573,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>316</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D113" s="13" t="s">
         <v>318</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -3585,13 +3587,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>319</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D114" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -3599,13 +3601,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>322</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D115" s="11" t="s">
         <v>324</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3613,13 +3615,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>325</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D116" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -3627,13 +3629,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>328</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D117" s="13" t="s">
         <v>330</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -3641,11 +3643,11 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C118" s="14"/>
       <c r="D118" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -3653,13 +3655,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>333</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D119" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -3667,13 +3669,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>336</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D120" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -3681,13 +3683,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>339</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D121" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3695,13 +3697,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>342</v>
+      </c>
+      <c r="C122" t="s">
+        <v>343</v>
+      </c>
+      <c r="D122" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="C122" t="s">
-        <v>345</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -3709,13 +3711,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>345</v>
+      </c>
+      <c r="C123" t="s">
+        <v>346</v>
+      </c>
+      <c r="D123" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="C123" t="s">
-        <v>348</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3723,13 +3725,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>348</v>
+      </c>
+      <c r="C124" t="s">
+        <v>349</v>
+      </c>
+      <c r="D124" s="10" t="s">
         <v>350</v>
-      </c>
-      <c r="C124" t="s">
-        <v>351</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3737,13 +3739,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>351</v>
+      </c>
+      <c r="C125" t="s">
+        <v>352</v>
+      </c>
+      <c r="D125" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="C125" t="s">
-        <v>354</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3751,13 +3753,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>354</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D126" s="15" t="s">
         <v>356</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3765,13 +3767,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>357</v>
+      </c>
+      <c r="C127" t="s">
+        <v>358</v>
+      </c>
+      <c r="D127" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="C127" t="s">
-        <v>360</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3779,13 +3781,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>360</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>362</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3793,13 +3795,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>363</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D129" s="10" t="s">
         <v>365</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3807,13 +3809,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>366</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D130" s="10" t="s">
         <v>368</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3821,10 +3823,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3832,10 +3834,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3843,10 +3845,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3854,10 +3856,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -3865,10 +3867,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3876,10 +3878,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -3887,10 +3889,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -3898,10 +3900,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -3909,10 +3911,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -3920,10 +3922,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -3931,10 +3933,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -3942,10 +3944,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -3953,10 +3955,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -3964,10 +3966,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3975,10 +3977,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -3986,10 +3988,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -3997,10 +3999,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -4008,10 +4010,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -4019,10 +4021,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -4030,10 +4032,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -4041,10 +4043,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -4052,10 +4054,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -4063,10 +4065,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -4074,10 +4076,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -4085,10 +4087,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -4096,10 +4098,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -4107,10 +4109,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -4118,10 +4120,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -4129,10 +4131,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -4140,10 +4142,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -4151,10 +4153,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -4162,10 +4164,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -4173,10 +4175,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -4184,10 +4186,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -4195,7 +4197,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -4203,10 +4205,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -4214,7 +4216,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -4222,10 +4224,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -4233,7 +4235,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -4241,10 +4243,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -4252,10 +4254,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -4263,10 +4265,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -4274,10 +4276,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -4285,10 +4287,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -4296,10 +4298,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -4307,10 +4309,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -4318,10 +4320,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -4329,10 +4331,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -4340,10 +4342,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -4351,10 +4353,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -4362,10 +4364,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -4373,7 +4375,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -4381,7 +4383,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -4389,10 +4391,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -4400,10 +4402,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -4411,7 +4413,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -4419,10 +4421,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -4430,10 +4432,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -4441,10 +4443,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -4452,10 +4454,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -4463,10 +4465,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -4474,10 +4476,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -4485,10 +4487,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -4496,10 +4498,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -4507,10 +4509,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -4518,7 +4520,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -4526,7 +4528,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -4534,10 +4536,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -4545,10 +4547,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -4556,10 +4558,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -4567,10 +4569,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -4578,10 +4580,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -4589,10 +4591,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -4600,10 +4602,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -4611,10 +4613,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">

--- a/muselist.xlsx
+++ b/muselist.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\大三下\软件工程\课设\子系统\museum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大三下学期\软件工程大作业\github\MusemData_Collection_System-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875CCD52-77D8-43B2-95A1-00DA60782DFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E76B7F2-517A-4005-90B3-AF7ED54E8A45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1642,7 +1643,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1667,6 +1668,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1685,7 +1692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1737,6 +1744,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2015,19 +2028,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="50.25" customWidth="1"/>
     <col min="4" max="4" width="128.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2055,7 +2068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2069,7 +2082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2083,7 +2096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2097,7 +2110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2111,7 +2124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2125,7 +2138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2139,7 +2152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2153,7 +2166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2167,7 +2180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2179,7 +2192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2193,7 +2206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2205,7 +2218,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2219,7 +2232,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2233,7 +2246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2247,7 +2260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2261,7 +2274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2275,7 +2288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2289,7 +2302,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2303,7 +2316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2317,7 +2330,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2331,7 +2344,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2345,7 +2358,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2359,7 +2372,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2373,7 +2386,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2387,7 +2400,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2401,7 +2414,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2415,7 +2428,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2427,7 +2440,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2439,7 +2452,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2451,7 +2464,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2465,7 +2478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2479,7 +2492,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2491,7 +2504,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2505,7 +2518,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2519,7 +2532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2533,7 +2546,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2547,7 +2560,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2561,7 +2574,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2573,7 +2586,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2587,7 +2600,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2601,7 +2614,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2615,7 +2628,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2629,7 +2642,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2643,7 +2656,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2657,7 +2670,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2671,7 +2684,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2685,7 +2698,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2699,7 +2712,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2713,7 +2726,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2727,7 +2740,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2741,7 +2754,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2755,7 +2768,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2769,7 +2782,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2783,7 +2796,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2794,7 +2807,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2808,7 +2821,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2822,7 +2835,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2836,7 +2849,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2850,7 +2863,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2864,7 +2877,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2878,7 +2891,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2892,7 +2905,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2906,7 +2919,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2920,7 +2933,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2934,7 +2947,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2948,7 +2961,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2962,7 +2975,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2976,7 +2989,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2990,7 +3003,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3004,7 +3017,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3018,7 +3031,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3032,7 +3045,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3046,7 +3059,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3060,7 +3073,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3074,7 +3087,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3088,7 +3101,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3099,7 +3112,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3113,7 +3126,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3127,7 +3140,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3141,25 +3154,25 @@
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="19" t="s">
         <v>232</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="20" t="s">
         <v>234</v>
       </c>
       <c r="C83" s="11" t="s">
@@ -3169,11 +3182,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="20" t="s">
         <v>237</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -3183,11 +3196,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="20" t="s">
         <v>240</v>
       </c>
       <c r="C85" s="14"/>
@@ -3195,11 +3208,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="20" t="s">
         <v>242</v>
       </c>
       <c r="C86" s="11" t="s">
@@ -3209,11 +3222,11 @@
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="20" t="s">
         <v>245</v>
       </c>
       <c r="C87" s="14"/>
@@ -3221,11 +3234,11 @@
         <v>246</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="20" t="s">
         <v>247</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -3235,11 +3248,11 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="20" t="s">
         <v>250</v>
       </c>
       <c r="C89" s="13" t="s">
@@ -3249,11 +3262,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="20" t="s">
         <v>253</v>
       </c>
       <c r="C90" s="13" t="s">
@@ -3263,11 +3276,11 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="20" t="s">
         <v>256</v>
       </c>
       <c r="C91" s="13" t="s">
@@ -3277,11 +3290,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="20" t="s">
         <v>259</v>
       </c>
       <c r="C92" s="11" t="s">
@@ -3291,11 +3304,11 @@
         <v>261</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="20" t="s">
         <v>262</v>
       </c>
       <c r="C93" s="11" t="s">
@@ -3305,11 +3318,11 @@
         <v>264</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="20" t="s">
         <v>265</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -3319,11 +3332,11 @@
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="20" t="s">
         <v>268</v>
       </c>
       <c r="C95" s="11" t="s">
@@ -3333,11 +3346,11 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="20" t="s">
         <v>271</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -3347,11 +3360,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="20" t="s">
         <v>274</v>
       </c>
       <c r="C97" s="11" t="s">
@@ -3361,11 +3374,11 @@
         <v>276</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="20" t="s">
         <v>277</v>
       </c>
       <c r="C98" s="14"/>
@@ -3373,11 +3386,11 @@
         <v>278</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="20" t="s">
         <v>279</v>
       </c>
       <c r="C99" s="11" t="s">
@@ -3387,11 +3400,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="20" t="s">
         <v>282</v>
       </c>
       <c r="C100" s="11" t="s">
@@ -3401,11 +3414,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="20" t="s">
         <v>285</v>
       </c>
       <c r="C101" s="11" t="s">
@@ -3415,11 +3428,11 @@
         <v>287</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="20" t="s">
         <v>288</v>
       </c>
       <c r="C102" s="13" t="s">
@@ -3429,11 +3442,11 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="20" t="s">
         <v>291</v>
       </c>
       <c r="C103" s="11" t="s">
@@ -3443,11 +3456,11 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="20" t="s">
         <v>294</v>
       </c>
       <c r="C104" s="11" t="s">
@@ -3457,11 +3470,11 @@
         <v>296</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="20" t="s">
         <v>297</v>
       </c>
       <c r="C105" s="11" t="s">
@@ -3471,11 +3484,11 @@
         <v>299</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="20" t="s">
         <v>300</v>
       </c>
       <c r="C106" s="11" t="s">
@@ -3485,11 +3498,11 @@
         <v>302</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="20" t="s">
         <v>303</v>
       </c>
       <c r="C107" s="11" t="s">
@@ -3499,11 +3512,11 @@
         <v>305</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="20" t="s">
         <v>306</v>
       </c>
       <c r="C108" s="11" t="s">
@@ -3513,11 +3526,11 @@
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="20" t="s">
         <v>309</v>
       </c>
       <c r="C109" s="14"/>
@@ -3525,11 +3538,11 @@
         <v>310</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="20" t="s">
         <v>311</v>
       </c>
       <c r="C110" s="14"/>
@@ -3537,11 +3550,11 @@
         <v>312</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="20" t="s">
         <v>313</v>
       </c>
       <c r="C111" s="13" t="s">
@@ -3551,11 +3564,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="20" t="s">
         <v>316</v>
       </c>
       <c r="C112" s="11" t="s">
@@ -3565,11 +3578,11 @@
         <v>318</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="20" t="s">
         <v>319</v>
       </c>
       <c r="C113" s="11" t="s">
@@ -3579,11 +3592,11 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="20" t="s">
         <v>322</v>
       </c>
       <c r="C114" s="11" t="s">
@@ -3593,11 +3606,11 @@
         <v>324</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="20" t="s">
         <v>325</v>
       </c>
       <c r="C115" s="11" t="s">
@@ -3607,11 +3620,11 @@
         <v>327</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="20" t="s">
         <v>328</v>
       </c>
       <c r="C116" s="11" t="s">
@@ -3621,11 +3634,11 @@
         <v>330</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="20" t="s">
         <v>331</v>
       </c>
       <c r="C117" s="11" t="s">
@@ -3635,11 +3648,11 @@
         <v>333</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="20" t="s">
         <v>334</v>
       </c>
       <c r="C118" s="14"/>
@@ -3647,11 +3660,11 @@
         <v>335</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="20" t="s">
         <v>336</v>
       </c>
       <c r="C119" s="11" t="s">
@@ -3661,11 +3674,11 @@
         <v>338</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="20" t="s">
         <v>339</v>
       </c>
       <c r="C120" s="11" t="s">
@@ -3675,11 +3688,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="20" t="s">
         <v>342</v>
       </c>
       <c r="C121" s="11" t="s">
@@ -3689,7 +3702,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3703,7 +3716,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3717,7 +3730,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3731,7 +3744,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3745,7 +3758,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3759,7 +3772,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3773,7 +3786,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3787,7 +3800,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3801,7 +3814,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3815,7 +3828,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3826,7 +3839,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3837,7 +3850,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3848,7 +3861,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3859,7 +3872,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3870,7 +3883,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3881,7 +3894,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3892,7 +3905,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3903,7 +3916,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3914,7 +3927,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3925,7 +3938,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3936,7 +3949,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3947,7 +3960,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3958,7 +3971,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3969,7 +3982,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3980,7 +3993,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3991,7 +4004,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4002,7 +4015,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4013,7 +4026,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4024,7 +4037,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4035,7 +4048,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4046,7 +4059,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4057,7 +4070,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4068,7 +4081,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4079,7 +4092,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4090,7 +4103,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4101,7 +4114,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4112,7 +4125,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4123,7 +4136,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4134,7 +4147,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4145,7 +4158,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4156,7 +4169,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4167,7 +4180,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4178,7 +4191,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4189,7 +4202,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4197,7 +4210,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4208,7 +4221,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4216,7 +4229,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4227,7 +4240,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4235,7 +4248,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4246,7 +4259,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4257,7 +4270,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4268,7 +4281,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4279,7 +4292,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4290,7 +4303,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4301,7 +4314,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4312,7 +4325,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4323,7 +4336,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4334,7 +4347,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4345,7 +4358,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4356,7 +4369,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4367,7 +4380,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4375,7 +4388,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4383,7 +4396,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4394,7 +4407,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4405,7 +4418,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4413,7 +4426,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4424,7 +4437,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4435,7 +4448,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4446,7 +4459,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4457,7 +4470,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4468,7 +4481,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4479,7 +4492,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4490,7 +4503,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4501,7 +4514,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4512,7 +4525,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4520,7 +4533,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4528,7 +4541,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4539,7 +4552,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4550,7 +4563,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4561,7 +4574,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4572,7 +4585,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4583,7 +4596,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4594,7 +4607,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4605,7 +4618,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -4616,7 +4629,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="16"/>
     </row>
   </sheetData>
@@ -4854,6 +4867,6 @@
     <hyperlink ref="D121" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId231"/>
 </worksheet>
 </file>